--- a/English example.xlsx
+++ b/English example.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Prescription name</t>
+  </si>
+  <si>
+    <t>herbal name</t>
+  </si>
   <si>
     <t>Prescription name 1</t>
   </si>
@@ -647,8 +653,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,23 +979,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="34.1351351351351" customWidth="1"/>
     <col min="2" max="2" width="86.7117117117117" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1006,6 +1015,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
